--- a/data/trans_camb/P9_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P9_3-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,68</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 7,64</t>
+          <t>-12,3; 9,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 18,96</t>
+          <t>-4,56; 18,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 9,96</t>
+          <t>-5,05; 10,47</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,52%</t>
+          <t>-2,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,65%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 13,12</t>
+          <t>-18,61; 15,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 41,45</t>
+          <t>-7,92; 38,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 18,58</t>
+          <t>-8,28; 19,58</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,84</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 20,84</t>
+          <t>-7,01; 18,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 8,33</t>
+          <t>-10,92; 9,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 11,78</t>
+          <t>-6,55; 10,63</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,16%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 53,56</t>
+          <t>-13,35; 46,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 15,44</t>
+          <t>-17,66; 18,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 24,31</t>
+          <t>-11,59; 21,81</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-1,24</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 7,43</t>
+          <t>-15,65; 5,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 9,06</t>
+          <t>-5,23; 9,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 5,54</t>
+          <t>-7,94; 5,3</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,46%</t>
+          <t>-7,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>-1,94%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 12,74</t>
+          <t>-23,65; 9,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 14,54</t>
+          <t>-7,45; 15,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 8,96</t>
+          <t>-11,66; 8,79</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,59</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 6,39</t>
+          <t>-10,66; 7,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 15,63</t>
+          <t>-1,2; 14,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 9,06</t>
+          <t>-3,45; 7,7</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,17%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,57%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 10,78</t>
+          <t>-16,26; 12,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 32,83</t>
+          <t>-1,96; 30,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 16,99</t>
+          <t>-5,87; 14,6</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,18</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 11,74</t>
+          <t>-8,91; 12,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 13,17</t>
+          <t>-5,39; 14,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 9,96</t>
+          <t>-3,67; 9,5</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 26,47</t>
+          <t>-15,88; 26,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 33,89</t>
+          <t>-11,16; 38,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 22,73</t>
+          <t>-7,43; 22,08</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,7</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 12,51</t>
+          <t>-7,95; 12,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 10,41</t>
+          <t>-5,11; 10,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 8,21</t>
+          <t>-3,5; 9,47</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>10,12%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 47,39</t>
+          <t>-22,64; 47,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 51,81</t>
+          <t>-19,0; 52,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 34,19</t>
+          <t>-12,2; 39,79</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,09</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 4,67</t>
+          <t>-4,28; 4,86</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,1; 7,54</t>
+          <t>-0,05; 7,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,74</t>
+          <t>-0,67; 5,0</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 9,05</t>
+          <t>-7,81; 9,6</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,33; 16,16</t>
+          <t>-0,1; 16,38</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 9,56</t>
+          <t>-1,36; 10,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P9_3-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,75</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.452175953902357</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.160304029189934</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.640004767094362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,3; 9,39</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; 18,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 10,47</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.28542940662093</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.290385228522829</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.968665163146483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,85%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>14,19%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,65%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.443259121823129</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.07855128479948</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.15433880376205</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-18,61; 15,96</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,92; 38,47</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,28; 19,58</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.02361402375844359</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.134292673304947</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.04581955588402583</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,3</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1866773976772703</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.08936986766339855</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.07997262315136726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,01; 18,68</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,92; 9,56</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 10,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.1657876672702538</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.3683890695794015</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2093477820871945</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>13,54%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,48%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>7.570084536986633</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.2399708633873066</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.017252198365695</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-13,35; 46,38</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-17,66; 18,07</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-11,59; 21,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.027284171603692</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.21911005320435</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.38140725641578</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-4,66</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.08096898144639</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.46701473589039</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.77275337143677</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-15,65; 5,51</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 9,88</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,94; 5,3</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.1626449956914394</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.004105235807530532</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.07687931408330562</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-7,53%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,08%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,94%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.09713613632975338</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1687620855828586</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.09554584500260645</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-23,65; 9,27</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,45; 15,82</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-11,66; 8,79</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.5201975764209654</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1949145274026345</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2423928995071216</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6,31</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-4.138357905288526</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.700454744186874</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.20160898530689</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-10,66; 7,01</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 14,42</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,45; 7,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-16.3805224135821</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.613242136497782</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-8.484497835222351</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-2,51%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>12,23%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>4,57%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>5.956758702054031</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.628450705247554</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.473081441523563</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-16,26; 12,19</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 30,32</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-5,87; 14,6</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.06688700750974987</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.02575103932349772</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.01878085828850461</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>4,56</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2500806646106025</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.08352724735293635</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1275442590527869</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-8,91; 12,15</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-5,39; 14,45</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 9,5</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.1014298074090034</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.1541527761869163</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.0897991625335702</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>10,63%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>6,77%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.440722639916715</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>7.218577327658937</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2.62893813403503</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-15,88; 26,43</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-11,16; 38,37</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-7,43; 22,08</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-11.55108831041819</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.2656545179037847</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.233030276189719</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.35074570738354</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>15.15835074407018</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>7.932024899602388</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-7,95; 12,93</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 10,82</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-3,5; 9,47</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.03921578549720937</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.140028625480479</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.04641782837978083</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>8,69%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>11,32%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>10,12%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1761295475185057</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.004300794085176452</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.05601115700674145</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-22,64; 47,77</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-19,0; 52,63</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-12,2; 39,79</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1113065763300407</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.3227898950712965</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1486185192362694</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>0.9424466422170763</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>4.657040703202036</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>2.74191223897347</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 4,86</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-0,05; 7,66</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-0,67; 5,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-9.878302394684416</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-4.762406912902295</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-4.108208931393021</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>0,58%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>7,79%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>4,12%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>10.94746654592262</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>15.00937016056197</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>9.203210850059234</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-7,81; 9,6</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-0,1; 16,38</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 10,02</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.01853552830497083</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.1084917050774034</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.05843501461039995</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.1734078631319511</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.1050038802133287</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.0833682401659142</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.2452123029514156</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.403367328935037</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.2052702307162183</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>2.11072491942973</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>3.459775522374481</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>2.902726492001728</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-8.62669212481015</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-4.579164231511063</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-3.424668403585612</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>12.55484053728634</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>12.13380610679648</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>10.04809200841735</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.06768552460583774</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.1477772515575695</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.1085617643075721</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.2410507714162168</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.1739970399304615</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.1226070127859023</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.4727967852759573</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.6184837168983339</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.4159089487912194</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.2521709840393904</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>4.168974775859241</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>2.255832394652102</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-4.524359865318195</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>0.3715834063408525</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-0.7112570364247218</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>4.857088567018268</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>8.219641234297361</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>5.294206225256399</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.00476887022416716</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.08567893490173933</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.04447657257472159</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.08195468708903089</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>0.00677907598173999</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.01519930831506782</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.09492792576712292</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.1777651572734176</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.1069033460756285</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
